--- a/OLS_Results_Top.xlsx
+++ b/OLS_Results_Top.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>CLc1</t>
   </si>
@@ -25,9 +25,6 @@
     <t>GCc1</t>
   </si>
   <si>
-    <t>LCOc1</t>
-  </si>
-  <si>
     <t>LCc1</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>nonrobust</t>
   </si>
   <si>
-    <t>Mon, 04 Apr 2022</t>
+    <t>Tue, 05 Apr 2022</t>
   </si>
   <si>
     <t>12</t>
@@ -190,7 +187,7 @@
     <t>0.020</t>
   </si>
   <si>
-    <t>20:01:47</t>
+    <t>08:00:01</t>
   </si>
   <si>
     <t>-246.6</t>
@@ -272,54 +269,6 @@
   </si>
   <si>
     <t>7.568</t>
-  </si>
-  <si>
-    <t>-214.9</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>-178.8</t>
-  </si>
-  <si>
-    <t>3.91e+03</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>1.965</t>
-  </si>
-  <si>
-    <t>7.164</t>
-  </si>
-  <si>
-    <t>168.767</t>
-  </si>
-  <si>
-    <t>8.359</t>
-  </si>
-  <si>
-    <t>120.46</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>42.280</t>
-  </si>
-  <si>
-    <t>1.99e-09</t>
-  </si>
-  <si>
-    <t>2.25e-37</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>-1.153</t>
   </si>
   <si>
     <t>-107.0</t>
@@ -980,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,262 +969,241 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K7" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1310,705 +1238,651 @@
       <c r="L9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>42</v>
       </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="G12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="I12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L20" t="s">
         <v>182</v>
       </c>
-      <c r="M12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" t="s">
         <v>131</v>
       </c>
-      <c r="I13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
         <v>171</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L21" t="s">
         <v>183</v>
       </c>
-      <c r="M13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
         <v>107</v>
       </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
         <v>132</v>
       </c>
-      <c r="I14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
         <v>172</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L24" t="s">
         <v>184</v>
       </c>
-      <c r="M14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" t="s">
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" t="s">
         <v>173</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L25" t="s">
         <v>185</v>
       </c>
-      <c r="M15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" t="s">
-        <v>188</v>
-      </c>
-      <c r="M21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" t="s">
-        <v>164</v>
-      </c>
-      <c r="K23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J24" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" t="s">
-        <v>177</v>
-      </c>
-      <c r="L24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
-      <c r="M25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/OLS_Results_Top.xlsx
+++ b/OLS_Results_Top.xlsx
@@ -133,7 +133,7 @@
     <t>3.85e+03</t>
   </si>
   <si>
-    <t>nonrobust</t>
+    <t>HAC</t>
   </si>
   <si>
     <t>Tue, 05 Apr 2022</t>
@@ -148,7 +148,7 @@
     <t>1.972</t>
   </si>
   <si>
-    <t>6.143</t>
+    <t>7.318</t>
   </si>
   <si>
     <t>62.484</t>
@@ -172,7 +172,7 @@
     <t>15.735</t>
   </si>
   <si>
-    <t>4.13e-08</t>
+    <t>1.19e-09</t>
   </si>
   <si>
     <t>2.70e-14</t>
@@ -187,7 +187,7 @@
     <t>0.020</t>
   </si>
   <si>
-    <t>08:00:01</t>
+    <t>09:08:40</t>
   </si>
   <si>
     <t>-246.6</t>
@@ -202,7 +202,7 @@
     <t>2.311</t>
   </si>
   <si>
-    <t>1.498</t>
+    <t>2.948</t>
   </si>
   <si>
     <t>24.274</t>
@@ -217,7 +217,7 @@
     <t>10.465</t>
   </si>
   <si>
-    <t>0.136</t>
+    <t>0.00141</t>
   </si>
   <si>
     <t>5.36e-06</t>
@@ -244,7 +244,7 @@
     <t>1.210</t>
   </si>
   <si>
-    <t>2.100</t>
+    <t>0.2010</t>
   </si>
   <si>
     <t>27778.554</t>
@@ -259,7 +259,7 @@
     <t>214.099</t>
   </si>
   <si>
-    <t>0.0227</t>
+    <t>0.998</t>
   </si>
   <si>
     <t>0.00</t>
@@ -283,7 +283,7 @@
     <t>1.379</t>
   </si>
   <si>
-    <t>1.813</t>
+    <t>0.6018</t>
   </si>
   <si>
     <t>14602.395</t>
@@ -298,7 +298,7 @@
     <t>186.978</t>
   </si>
   <si>
-    <t>0.0549</t>
+    <t>0.837</t>
   </si>
   <si>
     <t>0.169</t>
@@ -319,7 +319,7 @@
     <t>2.239</t>
   </si>
   <si>
-    <t>2.155</t>
+    <t>6.697</t>
   </si>
   <si>
     <t>64.217</t>
@@ -334,7 +334,7 @@
     <t>17.532</t>
   </si>
   <si>
-    <t>0.0190</t>
+    <t>7.60e-09</t>
   </si>
   <si>
     <t>1.14e-14</t>
@@ -358,7 +358,7 @@
     <t>1.339</t>
   </si>
   <si>
-    <t>2.199</t>
+    <t>0.4644</t>
   </si>
   <si>
     <t>18283.365</t>
@@ -373,7 +373,7 @@
     <t>195.406</t>
   </si>
   <si>
-    <t>0.0165</t>
+    <t>0.931</t>
   </si>
   <si>
     <t>0.198</t>
@@ -394,7 +394,7 @@
     <t>2.313</t>
   </si>
   <si>
-    <t>0.5513</t>
+    <t>1.137</t>
   </si>
   <si>
     <t>20.868</t>
@@ -409,7 +409,7 @@
     <t>13.250</t>
   </si>
   <si>
-    <t>0.876</t>
+    <t>0.339</t>
   </si>
   <si>
     <t>2.94e-05</t>
@@ -436,7 +436,7 @@
     <t>2.403</t>
   </si>
   <si>
-    <t>1.136</t>
+    <t>2.585</t>
   </si>
   <si>
     <t>13.870</t>
@@ -451,7 +451,7 @@
     <t>12.127</t>
   </si>
   <si>
-    <t>0.339</t>
+    <t>0.00472</t>
   </si>
   <si>
     <t>0.000973</t>
@@ -478,7 +478,7 @@
     <t>1.206</t>
   </si>
   <si>
-    <t>2.120</t>
+    <t>0.4115</t>
   </si>
   <si>
     <t>25666.122</t>
@@ -493,7 +493,7 @@
     <t>210.386</t>
   </si>
   <si>
-    <t>0.0213</t>
+    <t>0.956</t>
   </si>
   <si>
     <t>0.192</t>
@@ -514,7 +514,7 @@
     <t>1.279</t>
   </si>
   <si>
-    <t>2.212</t>
+    <t>0.4533</t>
   </si>
   <si>
     <t>23599.169</t>
@@ -529,7 +529,7 @@
     <t>206.767</t>
   </si>
   <si>
-    <t>0.0159</t>
+    <t>0.937</t>
   </si>
   <si>
     <t>0.199</t>
@@ -550,7 +550,7 @@
     <t>1.690</t>
   </si>
   <si>
-    <t>1.374</t>
+    <t>0.8281</t>
   </si>
   <si>
     <t>2700.943</t>
@@ -565,7 +565,7 @@
     <t>120.755</t>
   </si>
   <si>
-    <t>0.190</t>
+    <t>0.621</t>
   </si>
   <si>
     <t>0.133</t>

--- a/OLS_Results_Top.xlsx
+++ b/OLS_Results_Top.xlsx
@@ -187,7 +187,7 @@
     <t>0.020</t>
   </si>
   <si>
-    <t>09:08:40</t>
+    <t>09:24:52</t>
   </si>
   <si>
     <t>-246.6</t>

--- a/OLS_Results_Top.xlsx
+++ b/OLS_Results_Top.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="187">
   <si>
     <t>CLc1</t>
   </si>
@@ -187,7 +187,7 @@
     <t>0.020</t>
   </si>
   <si>
-    <t>09:24:52</t>
+    <t>11:06:22</t>
   </si>
   <si>
     <t>-246.6</t>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>-7.128</t>
+  </si>
+  <si>
+    <t>11:06:23</t>
   </si>
   <si>
     <t>-151.9</t>
@@ -1008,7 +1011,7 @@
         <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1046,7 +1049,7 @@
         <v>163</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1084,7 +1087,7 @@
         <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1350,7 +1353,7 @@
         <v>165</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1388,7 +1391,7 @@
         <v>166</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1426,7 +1429,7 @@
         <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1464,7 +1467,7 @@
         <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1502,7 +1505,7 @@
         <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1654,7 +1657,7 @@
         <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1692,7 +1695,7 @@
         <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1806,7 +1809,7 @@
         <v>172</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1844,7 +1847,7 @@
         <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1879,10 +1882,10 @@
         <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/OLS_Results_Top.xlsx
+++ b/OLS_Results_Top.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>CLc1</t>
   </si>
@@ -121,13 +121,13 @@
     <t>Time:</t>
   </si>
   <si>
-    <t>-182.7</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>-146.5</t>
+    <t>-189.2</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>-152.9</t>
   </si>
   <si>
     <t>3.85e+03</t>
@@ -136,7 +136,7 @@
     <t>HAC</t>
   </si>
   <si>
-    <t>Tue, 05 Apr 2022</t>
+    <t>Sun, 10 Apr 2022</t>
   </si>
   <si>
     <t>12</t>
@@ -145,19 +145,19 @@
     <t>107</t>
   </si>
   <si>
-    <t>1.972</t>
-  </si>
-  <si>
-    <t>7.318</t>
-  </si>
-  <si>
-    <t>62.484</t>
-  </si>
-  <si>
-    <t>6.535</t>
-  </si>
-  <si>
-    <t>104.36</t>
+    <t>2.019</t>
+  </si>
+  <si>
+    <t>7.697</t>
+  </si>
+  <si>
+    <t>74.274</t>
+  </si>
+  <si>
+    <t>6.854</t>
+  </si>
+  <si>
+    <t>107.58</t>
   </si>
   <si>
     <t>Least Squares</t>
@@ -169,412 +169,430 @@
     <t>120</t>
   </si>
   <si>
-    <t>15.735</t>
-  </si>
-  <si>
-    <t>1.19e-09</t>
-  </si>
-  <si>
-    <t>2.70e-14</t>
+    <t>16.969</t>
+  </si>
+  <si>
+    <t>3.96e-10</t>
+  </si>
+  <si>
+    <t>7.44e-17</t>
   </si>
   <si>
     <t>0.000</t>
   </si>
   <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>11:06:22</t>
-  </si>
-  <si>
-    <t>-246.6</t>
-  </si>
-  <si>
-    <t>0.048</t>
-  </si>
-  <si>
-    <t>-210.4</t>
-  </si>
-  <si>
-    <t>2.311</t>
-  </si>
-  <si>
-    <t>2.948</t>
-  </si>
-  <si>
-    <t>24.274</t>
-  </si>
-  <si>
-    <t>5.178</t>
-  </si>
-  <si>
-    <t>136.32</t>
-  </si>
-  <si>
-    <t>10.465</t>
-  </si>
-  <si>
-    <t>0.00141</t>
-  </si>
-  <si>
-    <t>5.36e-06</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>-0.167</t>
-  </si>
-  <si>
-    <t>202.0</t>
-  </si>
-  <si>
-    <t>0.100</t>
-  </si>
-  <si>
-    <t>238.2</t>
-  </si>
-  <si>
-    <t>1.210</t>
-  </si>
-  <si>
-    <t>0.2010</t>
-  </si>
-  <si>
-    <t>27778.554</t>
-  </si>
-  <si>
-    <t>75.984</t>
-  </si>
-  <si>
-    <t>-88.006</t>
-  </si>
-  <si>
-    <t>214.099</t>
-  </si>
-  <si>
-    <t>0.998</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>7.568</t>
-  </si>
-  <si>
-    <t>-107.0</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>-70.75</t>
-  </si>
-  <si>
-    <t>1.379</t>
-  </si>
-  <si>
-    <t>0.6018</t>
-  </si>
-  <si>
-    <t>14602.395</t>
-  </si>
-  <si>
-    <t>55.667</t>
-  </si>
-  <si>
-    <t>66.496</t>
-  </si>
-  <si>
-    <t>186.978</t>
-  </si>
-  <si>
-    <t>0.837</t>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>-0.021</t>
+  </si>
+  <si>
+    <t>17:35:15</t>
+  </si>
+  <si>
+    <t>-252.4</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>-216.2</t>
+  </si>
+  <si>
+    <t>2.378</t>
+  </si>
+  <si>
+    <t>2.995</t>
+  </si>
+  <si>
+    <t>30.428</t>
+  </si>
+  <si>
+    <t>5.465</t>
+  </si>
+  <si>
+    <t>139.20</t>
+  </si>
+  <si>
+    <t>11.227</t>
+  </si>
+  <si>
+    <t>0.00121</t>
+  </si>
+  <si>
+    <t>2.47e-07</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>-0.045</t>
+  </si>
+  <si>
+    <t>-402.7</t>
+  </si>
+  <si>
+    <t>-0.026</t>
+  </si>
+  <si>
+    <t>-366.5</t>
+  </si>
+  <si>
+    <t>2.132</t>
+  </si>
+  <si>
+    <t>2.279</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>3.179</t>
+  </si>
+  <si>
+    <t>214.37</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.0128</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>-334.7</t>
+  </si>
+  <si>
+    <t>-0.018</t>
+  </si>
+  <si>
+    <t>-298.4</t>
+  </si>
+  <si>
+    <t>2.430</t>
+  </si>
+  <si>
+    <t>1.247</t>
+  </si>
+  <si>
+    <t>5.949</t>
+  </si>
+  <si>
+    <t>3.934</t>
+  </si>
+  <si>
+    <t>180.34</t>
+  </si>
+  <si>
+    <t>5.411</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.0511</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>-0.282</t>
+  </si>
+  <si>
+    <t>-87.89</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>-51.65</t>
+  </si>
+  <si>
+    <t>2.205</t>
+  </si>
+  <si>
+    <t>5.045</t>
+  </si>
+  <si>
+    <t>65.651</t>
+  </si>
+  <si>
+    <t>6.588</t>
+  </si>
+  <si>
+    <t>56.946</t>
+  </si>
+  <si>
+    <t>17.312</t>
+  </si>
+  <si>
+    <t>1.33e-06</t>
+  </si>
+  <si>
+    <t>5.55e-15</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>-150.5</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>-114.2</t>
+  </si>
+  <si>
+    <t>2.235</t>
+  </si>
+  <si>
+    <t>1.318</t>
+  </si>
+  <si>
+    <t>23.309</t>
+  </si>
+  <si>
+    <t>5.159</t>
+  </si>
+  <si>
+    <t>88.227</t>
+  </si>
+  <si>
+    <t>9.768</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>8.68e-06</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>-205.6</t>
+  </si>
+  <si>
+    <t>-0.030</t>
+  </si>
+  <si>
+    <t>-169.4</t>
+  </si>
+  <si>
+    <t>2.447</t>
+  </si>
+  <si>
+    <t>1.217</t>
   </si>
   <si>
     <t>0.169</t>
   </si>
   <si>
-    <t>-6.055</t>
-  </si>
-  <si>
-    <t>-86.51</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>-50.27</t>
-  </si>
-  <si>
-    <t>2.239</t>
-  </si>
-  <si>
-    <t>6.697</t>
-  </si>
-  <si>
-    <t>64.217</t>
-  </si>
-  <si>
-    <t>6.537</t>
-  </si>
-  <si>
-    <t>56.255</t>
-  </si>
-  <si>
-    <t>17.532</t>
-  </si>
-  <si>
-    <t>7.60e-09</t>
-  </si>
-  <si>
-    <t>1.14e-14</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>121.7</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>157.9</t>
-  </si>
-  <si>
-    <t>1.339</t>
-  </si>
-  <si>
-    <t>0.4644</t>
-  </si>
-  <si>
-    <t>18283.365</t>
-  </si>
-  <si>
-    <t>62.063</t>
-  </si>
-  <si>
-    <t>-47.826</t>
-  </si>
-  <si>
-    <t>195.406</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>-6.484</t>
-  </si>
-  <si>
-    <t>-190.9</t>
-  </si>
-  <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>-154.6</t>
-  </si>
-  <si>
-    <t>2.313</t>
-  </si>
-  <si>
-    <t>1.137</t>
-  </si>
-  <si>
-    <t>20.868</t>
-  </si>
-  <si>
-    <t>4.760</t>
-  </si>
-  <si>
-    <t>108.43</t>
-  </si>
-  <si>
-    <t>13.250</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>2.94e-05</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>-229.7</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>-193.5</t>
-  </si>
-  <si>
-    <t>2.403</t>
-  </si>
-  <si>
-    <t>2.585</t>
-  </si>
-  <si>
-    <t>13.870</t>
-  </si>
-  <si>
-    <t>4.091</t>
-  </si>
-  <si>
-    <t>127.85</t>
-  </si>
-  <si>
-    <t>12.127</t>
-  </si>
-  <si>
-    <t>0.00472</t>
-  </si>
-  <si>
-    <t>0.000973</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>-0.629</t>
-  </si>
-  <si>
-    <t>114.2</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>150.5</t>
-  </si>
-  <si>
-    <t>1.206</t>
-  </si>
-  <si>
-    <t>0.4115</t>
-  </si>
-  <si>
-    <t>25666.122</t>
-  </si>
-  <si>
-    <t>73.126</t>
-  </si>
-  <si>
-    <t>-44.115</t>
-  </si>
-  <si>
-    <t>210.386</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>7.341</t>
-  </si>
-  <si>
-    <t>102.7</t>
-  </si>
-  <si>
-    <t>0.109</t>
-  </si>
-  <si>
-    <t>138.9</t>
-  </si>
-  <si>
-    <t>1.279</t>
-  </si>
-  <si>
-    <t>0.4533</t>
-  </si>
-  <si>
-    <t>23599.169</t>
-  </si>
-  <si>
-    <t>70.206</t>
-  </si>
-  <si>
-    <t>-38.327</t>
-  </si>
-  <si>
-    <t>206.767</t>
-  </si>
-  <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>-7.128</t>
-  </si>
-  <si>
-    <t>11:06:23</t>
-  </si>
-  <si>
-    <t>-151.9</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>-115.6</t>
-  </si>
-  <si>
-    <t>1.690</t>
-  </si>
-  <si>
-    <t>0.8281</t>
-  </si>
-  <si>
-    <t>2700.943</t>
-  </si>
-  <si>
-    <t>25.310</t>
-  </si>
-  <si>
-    <t>88.927</t>
-  </si>
-  <si>
-    <t>120.755</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.133</t>
-  </si>
-  <si>
-    <t>-3.257</t>
+    <t>2.987</t>
+  </si>
+  <si>
+    <t>115.82</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>17:35:16</t>
+  </si>
+  <si>
+    <t>-246.7</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>-210.5</t>
+  </si>
+  <si>
+    <t>2.571</t>
+  </si>
+  <si>
+    <t>3.136</t>
+  </si>
+  <si>
+    <t>3.219</t>
+  </si>
+  <si>
+    <t>3.387</t>
+  </si>
+  <si>
+    <t>136.37</t>
+  </si>
+  <si>
+    <t>3.819</t>
+  </si>
+  <si>
+    <t>0.000752</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>-0.351</t>
+  </si>
+  <si>
+    <t>-322.7</t>
+  </si>
+  <si>
+    <t>-286.5</t>
+  </si>
+  <si>
+    <t>2.401</t>
+  </si>
+  <si>
+    <t>2.864</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>2.704</t>
+  </si>
+  <si>
+    <t>174.37</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.00187</t>
+  </si>
+  <si>
+    <t>0.790</t>
+  </si>
+  <si>
+    <t>0.860</t>
+  </si>
+  <si>
+    <t>-0.042</t>
+  </si>
+  <si>
+    <t>-263.5</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>-227.3</t>
+  </si>
+  <si>
+    <t>2.172</t>
+  </si>
+  <si>
+    <t>2.050</t>
+  </si>
+  <si>
+    <t>1.609</t>
+  </si>
+  <si>
+    <t>3.546</t>
+  </si>
+  <si>
+    <t>144.76</t>
+  </si>
+  <si>
+    <t>1.996</t>
+  </si>
+  <si>
+    <t>0.0265</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>-251.6</t>
+  </si>
+  <si>
+    <t>-0.044</t>
+  </si>
+  <si>
+    <t>-215.3</t>
+  </si>
+  <si>
+    <t>2.370</t>
+  </si>
+  <si>
+    <t>1.120</t>
+  </si>
+  <si>
+    <t>5.846</t>
+  </si>
+  <si>
+    <t>3.782</t>
+  </si>
+  <si>
+    <t>138.78</t>
+  </si>
+  <si>
+    <t>5.892</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.0538</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.373</t>
   </si>
 </sst>
 </file>
@@ -990,28 +1008,28 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1028,28 +1046,28 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1066,28 +1084,28 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1332,28 +1350,28 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1370,28 +1388,28 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1408,28 +1426,28 @@
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1446,28 +1464,28 @@
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1484,28 +1502,28 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1636,28 +1654,28 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1674,28 +1692,28 @@
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1712,28 +1730,28 @@
         <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1747,31 +1765,31 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1785,31 +1803,31 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1823,31 +1841,31 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" t="s">
-        <v>173</v>
-      </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1873,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
